--- a/Task.xlsx
+++ b/Task.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\KLTN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865CC4A6-855D-4690-B2B9-40C37FE6A0BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94B3FB6-55C5-44CF-9A12-C795F9189262}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Task</t>
   </si>
@@ -34,6 +34,18 @@
   </si>
   <si>
     <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Tìm kiếm sản phẩm admin lỗi</t>
+  </si>
+  <si>
+    <t>Tìm thể loại sản phẩm admin lỗi</t>
+  </si>
+  <si>
+    <t>Sửa nội dung footer</t>
+  </si>
+  <si>
+    <t>Giá tạm ở /browser</t>
   </si>
 </sst>
 </file>
@@ -89,8 +101,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0BF4FDF2-71FC-417F-B7BD-8B46C75915C7}" name="Table1" displayName="Table1" ref="A1:B2" totalsRowShown="0">
-  <autoFilter ref="A1:B2" xr:uid="{E316BB27-8884-4B06-A65B-84C12006344A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0BF4FDF2-71FC-417F-B7BD-8B46C75915C7}" name="Table1" displayName="Table1" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{E316BB27-8884-4B06-A65B-84C12006344A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F1942782-EC12-4680-BED9-C532D0D14277}" name="Task"/>
     <tableColumn id="2" xr3:uid="{160A34DB-52A0-4599-99C0-A7262616D4F1}" name="Trạng thái"/>
@@ -362,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -387,6 +399,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
